--- a/Data/CB_activities_2025.xlsx
+++ b/Data/CB_activities_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Capacity-building-summary\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfernandez diaz\Documents\DATA SECTION\Meetings\2025\WPDCS21\iotc-data-section-activities\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C87E1D-91D2-4D41-8177-8B33A22657DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1801CF-40AE-4FE9-AE91-9ABF6A8A7546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D41A8BB6-56DB-424A-9F0C-BE9C289580A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D41A8BB6-56DB-424A-9F0C-BE9C289580A7}"/>
   </bookViews>
   <sheets>
     <sheet name="CB_tab" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Description of activities</t>
   </si>
   <si>
-    <t>IOTC Fisheries Statistician</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indonesia </t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t xml:space="preserve">Annual meeting of the EU RCG on Large Pelagics </t>
   </si>
   <si>
-    <t>Presentation of a summary on data needs and gaps regarding large pelagic data in the IOTC, with a summary of EU data reporting status.</t>
-  </si>
-  <si>
     <t>Oman</t>
   </si>
   <si>
@@ -164,13 +158,7 @@
     <t>2-4 Jul 2025</t>
   </si>
   <si>
-    <t>IOTC Data Coordinator;</t>
-  </si>
-  <si>
     <t>23-24 Sep 2025</t>
-  </si>
-  <si>
-    <t>Presented the relevant activities carried out by the Indian Ocean Tuna Commission related to fisheries statistics. These include revision of definition of fisheries in line with CWP handbook​; Harmonisation of guidelines and glossary with FAO terminology; and various tools to improve the fesibility of reporting data</t>
   </si>
   <si>
     <t>Presentation on IOTC contribution to FIRM, which included contribution to Global Tuna Atlas enhancements, including stock identifiers for data extraction, new data sources, and an indicator dashboard</t>
@@ -543,6 +531,18 @@
 •	Challenges in data collection, including the limited capacity of enumerators and the complexity of the fisheries.
 •	Discussions on improving reporting, particularly through pilot projects and the standardization of statistical methodologies.
 •	Review of the 2024 data submission, highlighting strengths, gaps, and areas requiring further attention.</t>
+  </si>
+  <si>
+    <t>EU Liasion Meeting</t>
+  </si>
+  <si>
+    <t>IOTC Fisheries officer (data)</t>
+  </si>
+  <si>
+    <t>Presented the relevant activities carried out by the Indian Ocean Tuna Commission related to fisheries statistics. These include revision of definition of fisheries in line with CWP handbook​; Harmonisation of guidelines and glossary with FAO terminology; and various tools to improve the fesibility of reporting data, as well the application of FAO matrix for the characterization of the fisheries</t>
+  </si>
+  <si>
+    <t>Presentation of a summary on EU data reporting status.</t>
   </si>
 </sst>
 </file>
@@ -1040,6 +1040,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1060,15 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,22 +1406,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06C795F-10D4-45CE-959B-82C1D2A020ED}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="92.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="4" max="5" width="25.7265625" customWidth="1"/>
+    <col min="6" max="6" width="92.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1433,290 +1433,290 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="96" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="108" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C5" s="10">
         <v>45934</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="96" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="96" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="16" t="s">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="12" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C12" s="10">
         <v>45827</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10">
         <v>45924</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="11">
         <v>45856</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1733,202 +1733,202 @@
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="10">
         <v>45827</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4">
         <v>45924</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="9">
         <v>45856</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="14"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="14"/>
       <c r="D15" s="4"/>
@@ -1946,31 +1946,31 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1982,343 +1982,343 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED82CD0-7D4C-4695-88F4-C8D1BFFF8ADE}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="60.140625" customWidth="1"/>
-    <col min="4" max="4" width="95.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="60.1796875" customWidth="1"/>
+    <col min="4" max="4" width="95.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="D3" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="34"/>
-      <c r="B6" s="55"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="21"/>
       <c r="D6" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="D7" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="D8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="36"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="24" t="s">
+      <c r="D9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="51"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="17"/>
       <c r="D10" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="33"/>
-      <c r="B11" s="51"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="17"/>
       <c r="D11" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34"/>
-      <c r="B12" s="56"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="18"/>
       <c r="D12" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="D13" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="D14" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="24" t="s">
+      <c r="D15" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="33"/>
-      <c r="B16" s="51"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="17"/>
       <c r="D16" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="34"/>
-      <c r="B17" s="56"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="18"/>
       <c r="D17" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="D21" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="34"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="56" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="32" t="s">
+      <c r="C23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="51"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="51"/>
+    </row>
+    <row r="26" spans="1:4" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="34"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="32" t="s">
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="37"/>
-    </row>
-    <row r="23" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="53" t="s">
+      <c r="B27" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="57" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="33"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="58"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="58"/>
-    </row>
-    <row r="26" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="59"/>
-    </row>
-    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="D29" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="33"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="D30" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="38"/>
-      <c r="B31" s="52"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="39"/>
       <c r="D31" s="40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CB_activities_2025.xlsx
+++ b/Data/CB_activities_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfernandez diaz\Documents\DATA SECTION\Meetings\2025\WPDCS21\iotc-data-section-activities\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1801CF-40AE-4FE9-AE91-9ABF6A8A7546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA63C8BE-C6D4-49D1-8C05-45BC05D0E442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D41A8BB6-56DB-424A-9F0C-BE9C289580A7}"/>
   </bookViews>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06C795F-10D4-45CE-959B-82C1D2A020ED}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1680,8 +1680,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>18</v>
+      <c r="A14" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>5</v>
@@ -1700,8 +1700,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="A15" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>4</v>
